--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_201.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_201.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32312-d76776-Reviews-Days_Inn_Near_City_of_Hope-Duarte_California.html</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>277</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Days-Inn-By-Wyndham-Near-City-Of-Hope.h26995.Hotel-Information</t>
@@ -532,11 +538,15 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +568,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_201.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_201.xlsx
@@ -4620,7 +4620,7 @@
         <v>26199</v>
       </c>
       <c r="B2" t="n">
-        <v>135843</v>
+        <v>166770</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -4695,7 +4695,7 @@
         <v>26199</v>
       </c>
       <c r="B3" t="n">
-        <v>135844</v>
+        <v>166771</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -4770,7 +4770,7 @@
         <v>26199</v>
       </c>
       <c r="B4" t="n">
-        <v>135845</v>
+        <v>166772</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -4920,7 +4920,7 @@
         <v>26199</v>
       </c>
       <c r="B6" t="n">
-        <v>135846</v>
+        <v>135845</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -4995,7 +4995,7 @@
         <v>26199</v>
       </c>
       <c r="B7" t="n">
-        <v>135847</v>
+        <v>166773</v>
       </c>
       <c r="C7" t="s">
         <v>96</v>
@@ -5070,7 +5070,7 @@
         <v>26199</v>
       </c>
       <c r="B8" t="n">
-        <v>135848</v>
+        <v>166774</v>
       </c>
       <c r="C8" t="s">
         <v>105</v>
@@ -5139,7 +5139,7 @@
         <v>26199</v>
       </c>
       <c r="B9" t="n">
-        <v>135849</v>
+        <v>166775</v>
       </c>
       <c r="C9" t="s">
         <v>116</v>
@@ -5214,7 +5214,7 @@
         <v>26199</v>
       </c>
       <c r="B10" t="n">
-        <v>135850</v>
+        <v>166776</v>
       </c>
       <c r="C10" t="s">
         <v>122</v>
@@ -5358,7 +5358,7 @@
         <v>26199</v>
       </c>
       <c r="B12" t="n">
-        <v>135851</v>
+        <v>166777</v>
       </c>
       <c r="C12" t="s">
         <v>139</v>
@@ -5431,7 +5431,7 @@
         <v>26199</v>
       </c>
       <c r="B13" t="n">
-        <v>135852</v>
+        <v>166778</v>
       </c>
       <c r="C13" t="s">
         <v>148</v>
@@ -5581,7 +5581,7 @@
         <v>26199</v>
       </c>
       <c r="B15" t="n">
-        <v>135853</v>
+        <v>166779</v>
       </c>
       <c r="C15" t="s">
         <v>165</v>
@@ -5652,7 +5652,7 @@
         <v>26199</v>
       </c>
       <c r="B16" t="n">
-        <v>135854</v>
+        <v>135853</v>
       </c>
       <c r="C16" t="s">
         <v>174</v>
@@ -5717,7 +5717,7 @@
         <v>26199</v>
       </c>
       <c r="B17" t="n">
-        <v>135855</v>
+        <v>166780</v>
       </c>
       <c r="C17" t="s">
         <v>183</v>
@@ -5932,7 +5932,7 @@
         <v>26199</v>
       </c>
       <c r="B20" t="n">
-        <v>135856</v>
+        <v>166781</v>
       </c>
       <c r="C20" t="s">
         <v>206</v>
@@ -6001,7 +6001,7 @@
         <v>26199</v>
       </c>
       <c r="B21" t="n">
-        <v>135857</v>
+        <v>166782</v>
       </c>
       <c r="C21" t="s">
         <v>216</v>
@@ -6072,7 +6072,7 @@
         <v>26199</v>
       </c>
       <c r="B22" t="n">
-        <v>135858</v>
+        <v>166783</v>
       </c>
       <c r="C22" t="s">
         <v>226</v>
@@ -6222,7 +6222,7 @@
         <v>26199</v>
       </c>
       <c r="B24" t="n">
-        <v>135859</v>
+        <v>135851</v>
       </c>
       <c r="C24" t="s">
         <v>241</v>
@@ -6366,7 +6366,7 @@
         <v>26199</v>
       </c>
       <c r="B26" t="n">
-        <v>135860</v>
+        <v>166784</v>
       </c>
       <c r="C26" t="s">
         <v>258</v>
@@ -6441,7 +6441,7 @@
         <v>26199</v>
       </c>
       <c r="B27" t="n">
-        <v>135861</v>
+        <v>166785</v>
       </c>
       <c r="C27" t="s">
         <v>268</v>
@@ -6516,7 +6516,7 @@
         <v>26199</v>
       </c>
       <c r="B28" t="n">
-        <v>135862</v>
+        <v>166786</v>
       </c>
       <c r="C28" t="s">
         <v>277</v>
@@ -6591,7 +6591,7 @@
         <v>26199</v>
       </c>
       <c r="B29" t="n">
-        <v>135863</v>
+        <v>166787</v>
       </c>
       <c r="C29" t="s">
         <v>283</v>
@@ -6666,7 +6666,7 @@
         <v>26199</v>
       </c>
       <c r="B30" t="n">
-        <v>135864</v>
+        <v>166788</v>
       </c>
       <c r="C30" t="s">
         <v>293</v>
@@ -6737,7 +6737,7 @@
         <v>26199</v>
       </c>
       <c r="B31" t="n">
-        <v>135865</v>
+        <v>166789</v>
       </c>
       <c r="C31" t="s">
         <v>302</v>
@@ -6802,7 +6802,7 @@
         <v>26199</v>
       </c>
       <c r="B32" t="n">
-        <v>135866</v>
+        <v>166790</v>
       </c>
       <c r="C32" t="s">
         <v>309</v>
@@ -6877,7 +6877,7 @@
         <v>26199</v>
       </c>
       <c r="B33" t="n">
-        <v>135867</v>
+        <v>166791</v>
       </c>
       <c r="C33" t="s">
         <v>319</v>
@@ -7100,7 +7100,7 @@
         <v>26199</v>
       </c>
       <c r="B36" t="n">
-        <v>135868</v>
+        <v>166792</v>
       </c>
       <c r="C36" t="s">
         <v>345</v>
@@ -7175,7 +7175,7 @@
         <v>26199</v>
       </c>
       <c r="B37" t="n">
-        <v>135869</v>
+        <v>166793</v>
       </c>
       <c r="C37" t="s">
         <v>354</v>
@@ -7250,7 +7250,7 @@
         <v>26199</v>
       </c>
       <c r="B38" t="n">
-        <v>135870</v>
+        <v>166794</v>
       </c>
       <c r="C38" t="s">
         <v>363</v>
@@ -7325,7 +7325,7 @@
         <v>26199</v>
       </c>
       <c r="B39" t="n">
-        <v>135871</v>
+        <v>166795</v>
       </c>
       <c r="C39" t="s">
         <v>372</v>
@@ -7400,7 +7400,7 @@
         <v>26199</v>
       </c>
       <c r="B40" t="n">
-        <v>135858</v>
+        <v>135851</v>
       </c>
       <c r="C40" t="s">
         <v>241</v>
@@ -7473,7 +7473,7 @@
         <v>26199</v>
       </c>
       <c r="B41" t="n">
-        <v>135872</v>
+        <v>166796</v>
       </c>
       <c r="C41" t="s">
         <v>384</v>
@@ -7548,7 +7548,7 @@
         <v>26199</v>
       </c>
       <c r="B42" t="n">
-        <v>135873</v>
+        <v>166797</v>
       </c>
       <c r="C42" t="s">
         <v>393</v>
@@ -7619,7 +7619,7 @@
         <v>26199</v>
       </c>
       <c r="B43" t="n">
-        <v>135874</v>
+        <v>166798</v>
       </c>
       <c r="C43" t="s">
         <v>403</v>
@@ -7769,7 +7769,7 @@
         <v>26199</v>
       </c>
       <c r="B45" t="n">
-        <v>135875</v>
+        <v>166799</v>
       </c>
       <c r="C45" t="s">
         <v>421</v>
@@ -7840,7 +7840,7 @@
         <v>26199</v>
       </c>
       <c r="B46" t="n">
-        <v>135876</v>
+        <v>135859</v>
       </c>
       <c r="C46" t="s">
         <v>428</v>
@@ -7913,7 +7913,7 @@
         <v>26199</v>
       </c>
       <c r="B47" t="n">
-        <v>135877</v>
+        <v>166800</v>
       </c>
       <c r="C47" t="s">
         <v>431</v>
@@ -7986,7 +7986,7 @@
         <v>26199</v>
       </c>
       <c r="B48" t="n">
-        <v>135878</v>
+        <v>166801</v>
       </c>
       <c r="C48" t="s">
         <v>438</v>
@@ -8055,7 +8055,7 @@
         <v>26199</v>
       </c>
       <c r="B49" t="n">
-        <v>135879</v>
+        <v>166802</v>
       </c>
       <c r="C49" t="s">
         <v>445</v>
@@ -8193,7 +8193,7 @@
         <v>26199</v>
       </c>
       <c r="B51" t="n">
-        <v>135880</v>
+        <v>166803</v>
       </c>
       <c r="C51" t="s">
         <v>464</v>
@@ -8266,7 +8266,7 @@
         <v>26199</v>
       </c>
       <c r="B52" t="n">
-        <v>135881</v>
+        <v>166804</v>
       </c>
       <c r="C52" t="s">
         <v>469</v>
@@ -8335,7 +8335,7 @@
         <v>26199</v>
       </c>
       <c r="B53" t="n">
-        <v>135882</v>
+        <v>166805</v>
       </c>
       <c r="C53" t="s">
         <v>478</v>
@@ -8410,7 +8410,7 @@
         <v>26199</v>
       </c>
       <c r="B54" t="n">
-        <v>135883</v>
+        <v>166806</v>
       </c>
       <c r="C54" t="s">
         <v>487</v>
@@ -8485,7 +8485,7 @@
         <v>26199</v>
       </c>
       <c r="B55" t="n">
-        <v>135884</v>
+        <v>166807</v>
       </c>
       <c r="C55" t="s">
         <v>494</v>
@@ -8550,7 +8550,7 @@
         <v>26199</v>
       </c>
       <c r="B56" t="n">
-        <v>135885</v>
+        <v>166808</v>
       </c>
       <c r="C56" t="s">
         <v>503</v>
@@ -8680,7 +8680,7 @@
         <v>26199</v>
       </c>
       <c r="B58" t="n">
-        <v>135886</v>
+        <v>166809</v>
       </c>
       <c r="C58" t="s">
         <v>519</v>
@@ -8755,7 +8755,7 @@
         <v>26199</v>
       </c>
       <c r="B59" t="n">
-        <v>135887</v>
+        <v>166810</v>
       </c>
       <c r="C59" t="s">
         <v>527</v>
@@ -8830,7 +8830,7 @@
         <v>26199</v>
       </c>
       <c r="B60" t="n">
-        <v>135888</v>
+        <v>166811</v>
       </c>
       <c r="C60" t="s">
         <v>537</v>
@@ -8978,7 +8978,7 @@
         <v>26199</v>
       </c>
       <c r="B62" t="n">
-        <v>135889</v>
+        <v>166812</v>
       </c>
       <c r="C62" t="s">
         <v>548</v>
@@ -9128,7 +9128,7 @@
         <v>26199</v>
       </c>
       <c r="B64" t="n">
-        <v>135890</v>
+        <v>166813</v>
       </c>
       <c r="C64" t="s">
         <v>566</v>
@@ -9278,7 +9278,7 @@
         <v>26199</v>
       </c>
       <c r="B66" t="n">
-        <v>135891</v>
+        <v>166814</v>
       </c>
       <c r="C66" t="s">
         <v>586</v>
@@ -9351,7 +9351,7 @@
         <v>26199</v>
       </c>
       <c r="B67" t="n">
-        <v>135892</v>
+        <v>166815</v>
       </c>
       <c r="C67" t="s">
         <v>592</v>
@@ -9426,7 +9426,7 @@
         <v>26199</v>
       </c>
       <c r="B68" t="n">
-        <v>135893</v>
+        <v>166816</v>
       </c>
       <c r="C68" t="s">
         <v>598</v>
@@ -9566,7 +9566,7 @@
         <v>26199</v>
       </c>
       <c r="B70" t="n">
-        <v>135894</v>
+        <v>166817</v>
       </c>
       <c r="C70" t="s">
         <v>617</v>
@@ -9639,7 +9639,7 @@
         <v>26199</v>
       </c>
       <c r="B71" t="n">
-        <v>135895</v>
+        <v>166818</v>
       </c>
       <c r="C71" t="s">
         <v>623</v>
@@ -9714,7 +9714,7 @@
         <v>26199</v>
       </c>
       <c r="B72" t="n">
-        <v>135896</v>
+        <v>166819</v>
       </c>
       <c r="C72" t="s">
         <v>633</v>
@@ -9779,7 +9779,7 @@
         <v>26199</v>
       </c>
       <c r="B73" t="n">
-        <v>135875</v>
+        <v>135859</v>
       </c>
       <c r="C73" t="s">
         <v>428</v>
@@ -9854,7 +9854,7 @@
         <v>26199</v>
       </c>
       <c r="B74" t="n">
-        <v>135897</v>
+        <v>166820</v>
       </c>
       <c r="C74" t="s">
         <v>651</v>
@@ -9929,7 +9929,7 @@
         <v>26199</v>
       </c>
       <c r="B75" t="n">
-        <v>135898</v>
+        <v>166821</v>
       </c>
       <c r="C75" t="s">
         <v>660</v>
@@ -9994,7 +9994,7 @@
         <v>26199</v>
       </c>
       <c r="B76" t="n">
-        <v>135899</v>
+        <v>166822</v>
       </c>
       <c r="C76" t="s">
         <v>667</v>
@@ -10349,7 +10349,7 @@
         <v>26199</v>
       </c>
       <c r="B81" t="n">
-        <v>135900</v>
+        <v>166823</v>
       </c>
       <c r="C81" t="s">
         <v>704</v>
@@ -10422,7 +10422,7 @@
         <v>26199</v>
       </c>
       <c r="B82" t="n">
-        <v>135901</v>
+        <v>166824</v>
       </c>
       <c r="C82" t="s">
         <v>708</v>
@@ -10493,7 +10493,7 @@
         <v>26199</v>
       </c>
       <c r="B83" t="n">
-        <v>135902</v>
+        <v>166825</v>
       </c>
       <c r="C83" t="s">
         <v>718</v>
@@ -10718,7 +10718,7 @@
         <v>26199</v>
       </c>
       <c r="B86" t="n">
-        <v>135903</v>
+        <v>166826</v>
       </c>
       <c r="C86" t="s">
         <v>747</v>
@@ -10791,7 +10791,7 @@
         <v>26199</v>
       </c>
       <c r="B87" t="n">
-        <v>135904</v>
+        <v>166827</v>
       </c>
       <c r="C87" t="s">
         <v>753</v>
@@ -10864,7 +10864,7 @@
         <v>26199</v>
       </c>
       <c r="B88" t="n">
-        <v>135905</v>
+        <v>166828</v>
       </c>
       <c r="C88" t="s">
         <v>759</v>
@@ -10929,7 +10929,7 @@
         <v>26199</v>
       </c>
       <c r="B89" t="n">
-        <v>135906</v>
+        <v>166829</v>
       </c>
       <c r="C89" t="s">
         <v>766</v>
@@ -11004,7 +11004,7 @@
         <v>26199</v>
       </c>
       <c r="B90" t="n">
-        <v>135907</v>
+        <v>166830</v>
       </c>
       <c r="C90" t="s">
         <v>776</v>
@@ -11075,7 +11075,7 @@
         <v>26199</v>
       </c>
       <c r="B91" t="n">
-        <v>135908</v>
+        <v>166831</v>
       </c>
       <c r="C91" t="s">
         <v>783</v>
@@ -11150,7 +11150,7 @@
         <v>26199</v>
       </c>
       <c r="B92" t="n">
-        <v>135909</v>
+        <v>166832</v>
       </c>
       <c r="C92" t="s">
         <v>792</v>
@@ -11221,7 +11221,7 @@
         <v>26199</v>
       </c>
       <c r="B93" t="n">
-        <v>135910</v>
+        <v>166833</v>
       </c>
       <c r="C93" t="s">
         <v>801</v>
@@ -11367,7 +11367,7 @@
         <v>26199</v>
       </c>
       <c r="B95" t="n">
-        <v>135911</v>
+        <v>166834</v>
       </c>
       <c r="C95" t="s">
         <v>817</v>
@@ -11509,7 +11509,7 @@
         <v>26199</v>
       </c>
       <c r="B97" t="n">
-        <v>135912</v>
+        <v>166835</v>
       </c>
       <c r="C97" t="s">
         <v>834</v>
@@ -11584,7 +11584,7 @@
         <v>26199</v>
       </c>
       <c r="B98" t="n">
-        <v>135913</v>
+        <v>166836</v>
       </c>
       <c r="C98" t="s">
         <v>843</v>
@@ -11655,7 +11655,7 @@
         <v>26199</v>
       </c>
       <c r="B99" t="n">
-        <v>135914</v>
+        <v>166837</v>
       </c>
       <c r="C99" t="s">
         <v>853</v>
@@ -11726,7 +11726,7 @@
         <v>26199</v>
       </c>
       <c r="B100" t="n">
-        <v>135915</v>
+        <v>166838</v>
       </c>
       <c r="C100" t="s">
         <v>863</v>
@@ -12018,7 +12018,7 @@
         <v>26199</v>
       </c>
       <c r="B104" t="n">
-        <v>135916</v>
+        <v>166839</v>
       </c>
       <c r="C104" t="s">
         <v>898</v>
@@ -12089,7 +12089,7 @@
         <v>26199</v>
       </c>
       <c r="B105" t="n">
-        <v>135917</v>
+        <v>166840</v>
       </c>
       <c r="C105" t="s">
         <v>908</v>
@@ -12367,7 +12367,7 @@
         <v>26199</v>
       </c>
       <c r="B109" t="n">
-        <v>135918</v>
+        <v>166841</v>
       </c>
       <c r="C109" t="s">
         <v>938</v>
@@ -12513,7 +12513,7 @@
         <v>26199</v>
       </c>
       <c r="B111" t="n">
-        <v>135919</v>
+        <v>166842</v>
       </c>
       <c r="C111" t="s">
         <v>957</v>
@@ -12588,7 +12588,7 @@
         <v>26199</v>
       </c>
       <c r="B112" t="n">
-        <v>135920</v>
+        <v>166843</v>
       </c>
       <c r="C112" t="s">
         <v>965</v>
@@ -12663,7 +12663,7 @@
         <v>26199</v>
       </c>
       <c r="B113" t="n">
-        <v>135921</v>
+        <v>166844</v>
       </c>
       <c r="C113" t="s">
         <v>973</v>
@@ -12813,7 +12813,7 @@
         <v>26199</v>
       </c>
       <c r="B115" t="n">
-        <v>135922</v>
+        <v>166845</v>
       </c>
       <c r="C115" t="s">
         <v>988</v>
@@ -12888,7 +12888,7 @@
         <v>26199</v>
       </c>
       <c r="B116" t="n">
-        <v>135923</v>
+        <v>166846</v>
       </c>
       <c r="C116" t="s">
         <v>997</v>
@@ -12963,7 +12963,7 @@
         <v>26199</v>
       </c>
       <c r="B117" t="n">
-        <v>135924</v>
+        <v>166847</v>
       </c>
       <c r="C117" t="s">
         <v>1007</v>
@@ -13184,7 +13184,7 @@
         <v>26199</v>
       </c>
       <c r="B120" t="n">
-        <v>135925</v>
+        <v>166848</v>
       </c>
       <c r="C120" t="s">
         <v>1024</v>
@@ -13314,7 +13314,7 @@
         <v>26199</v>
       </c>
       <c r="B122" t="n">
-        <v>135926</v>
+        <v>166849</v>
       </c>
       <c r="C122" t="s">
         <v>1038</v>
@@ -13389,7 +13389,7 @@
         <v>26199</v>
       </c>
       <c r="B123" t="n">
-        <v>135927</v>
+        <v>166850</v>
       </c>
       <c r="C123" t="s">
         <v>1048</v>
@@ -13464,7 +13464,7 @@
         <v>26199</v>
       </c>
       <c r="B124" t="n">
-        <v>135928</v>
+        <v>166851</v>
       </c>
       <c r="C124" t="s">
         <v>1055</v>
@@ -13539,7 +13539,7 @@
         <v>26199</v>
       </c>
       <c r="B125" t="n">
-        <v>135929</v>
+        <v>166852</v>
       </c>
       <c r="C125" t="s">
         <v>1062</v>
@@ -13839,7 +13839,7 @@
         <v>26199</v>
       </c>
       <c r="B129" t="n">
-        <v>135930</v>
+        <v>166853</v>
       </c>
       <c r="C129" t="s">
         <v>1097</v>
@@ -14208,7 +14208,7 @@
         <v>26199</v>
       </c>
       <c r="B134" t="n">
-        <v>135931</v>
+        <v>166854</v>
       </c>
       <c r="C134" t="s">
         <v>1132</v>
@@ -14283,7 +14283,7 @@
         <v>26199</v>
       </c>
       <c r="B135" t="n">
-        <v>135932</v>
+        <v>166855</v>
       </c>
       <c r="C135" t="s">
         <v>1142</v>
@@ -14358,7 +14358,7 @@
         <v>26199</v>
       </c>
       <c r="B136" t="n">
-        <v>135933</v>
+        <v>166856</v>
       </c>
       <c r="C136" t="s">
         <v>1149</v>
@@ -14433,7 +14433,7 @@
         <v>26199</v>
       </c>
       <c r="B137" t="n">
-        <v>135934</v>
+        <v>166857</v>
       </c>
       <c r="C137" t="s">
         <v>1159</v>
@@ -14508,7 +14508,7 @@
         <v>26199</v>
       </c>
       <c r="B138" t="n">
-        <v>135935</v>
+        <v>166858</v>
       </c>
       <c r="C138" t="s">
         <v>1167</v>
@@ -14581,7 +14581,7 @@
         <v>26199</v>
       </c>
       <c r="B139" t="n">
-        <v>135936</v>
+        <v>166859</v>
       </c>
       <c r="C139" t="s">
         <v>1177</v>
@@ -14656,7 +14656,7 @@
         <v>26199</v>
       </c>
       <c r="B140" t="n">
-        <v>135937</v>
+        <v>166860</v>
       </c>
       <c r="C140" t="s">
         <v>1184</v>
@@ -14731,7 +14731,7 @@
         <v>26199</v>
       </c>
       <c r="B141" t="n">
-        <v>135938</v>
+        <v>166861</v>
       </c>
       <c r="C141" t="s">
         <v>1192</v>
@@ -14806,7 +14806,7 @@
         <v>26199</v>
       </c>
       <c r="B142" t="n">
-        <v>135939</v>
+        <v>166862</v>
       </c>
       <c r="C142" t="s">
         <v>1202</v>
@@ -14879,7 +14879,7 @@
         <v>26199</v>
       </c>
       <c r="B143" t="n">
-        <v>135940</v>
+        <v>166863</v>
       </c>
       <c r="C143" t="s">
         <v>1206</v>
@@ -15019,7 +15019,7 @@
         <v>26199</v>
       </c>
       <c r="B145" t="n">
-        <v>135941</v>
+        <v>135888</v>
       </c>
       <c r="C145" t="s">
         <v>1224</v>
@@ -15094,7 +15094,7 @@
         <v>26199</v>
       </c>
       <c r="B146" t="n">
-        <v>135942</v>
+        <v>166864</v>
       </c>
       <c r="C146" t="s">
         <v>1231</v>
@@ -15169,7 +15169,7 @@
         <v>26199</v>
       </c>
       <c r="B147" t="n">
-        <v>135943</v>
+        <v>166865</v>
       </c>
       <c r="C147" t="s">
         <v>1241</v>
@@ -15319,7 +15319,7 @@
         <v>26199</v>
       </c>
       <c r="B149" t="n">
-        <v>135944</v>
+        <v>166866</v>
       </c>
       <c r="C149" t="s">
         <v>1256</v>
@@ -15386,7 +15386,7 @@
         <v>26199</v>
       </c>
       <c r="B150" t="n">
-        <v>135945</v>
+        <v>166867</v>
       </c>
       <c r="C150" t="s">
         <v>1263</v>
@@ -15457,7 +15457,7 @@
         <v>26199</v>
       </c>
       <c r="B151" t="n">
-        <v>135940</v>
+        <v>135888</v>
       </c>
       <c r="C151" t="s">
         <v>1224</v>
@@ -15528,7 +15528,7 @@
         <v>26199</v>
       </c>
       <c r="B152" t="n">
-        <v>135946</v>
+        <v>166868</v>
       </c>
       <c r="C152" t="s">
         <v>1280</v>
@@ -15599,7 +15599,7 @@
         <v>26199</v>
       </c>
       <c r="B153" t="n">
-        <v>135947</v>
+        <v>166869</v>
       </c>
       <c r="C153" t="s">
         <v>1288</v>
@@ -15670,7 +15670,7 @@
         <v>26199</v>
       </c>
       <c r="B154" t="n">
-        <v>135948</v>
+        <v>166870</v>
       </c>
       <c r="C154" t="s">
         <v>1295</v>
@@ -15741,7 +15741,7 @@
         <v>26199</v>
       </c>
       <c r="B155" t="n">
-        <v>135949</v>
+        <v>166871</v>
       </c>
       <c r="C155" t="s">
         <v>1303</v>
@@ -15812,7 +15812,7 @@
         <v>26199</v>
       </c>
       <c r="B156" t="n">
-        <v>135950</v>
+        <v>166872</v>
       </c>
       <c r="C156" t="s">
         <v>1310</v>
@@ -15887,7 +15887,7 @@
         <v>26199</v>
       </c>
       <c r="B157" t="n">
-        <v>135951</v>
+        <v>166873</v>
       </c>
       <c r="C157" t="s">
         <v>1320</v>
@@ -15962,7 +15962,7 @@
         <v>26199</v>
       </c>
       <c r="B158" t="n">
-        <v>135952</v>
+        <v>166874</v>
       </c>
       <c r="C158" t="s">
         <v>1330</v>
@@ -16019,7 +16019,7 @@
         <v>26199</v>
       </c>
       <c r="B159" t="n">
-        <v>135953</v>
+        <v>166875</v>
       </c>
       <c r="C159" t="s">
         <v>1336</v>
@@ -16094,7 +16094,7 @@
         <v>26199</v>
       </c>
       <c r="B160" t="n">
-        <v>135954</v>
+        <v>166876</v>
       </c>
       <c r="C160" t="s">
         <v>1346</v>
